--- a/biology/Histoire de la zoologie et de la botanique/Académie_des_sciences_naturelles/Académie_des_sciences_naturelles.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Académie_des_sciences_naturelles/Académie_des_sciences_naturelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_des_sciences_naturelles</t>
+          <t>Académie_des_sciences_naturelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Académie des sciences naturelles de l'Université Drexel (en anglais Academy of Natural Sciences of Drexel University ou Academy of Natural Sciences of Philadelphia - ANSP) est une société savante créée en 1812 à Philadelphie dont le but est d’enrichir les connaissances scientifiques en histoire naturelle.
 L'Académie organise dès sa création d'importantes expéditions comme celles conduites par Stephen Harriman Long (1784-1864) ou par Ferdinand Vandeveer Hayden (1828-1887) dans l’ouest américain. Ces explorateurs rassemblent de très nombreux spécimens qui forment l’embryon des futures collections. Aujourd’hui, elles sont riches de 25 millions de spécimens. Ces expéditions seront suivies de bien d’autres.
